--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grpdfi-my.sharepoint.com/personal/mbh_corelia_ai/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="918" documentId="11_F25DC773A252ABDACC104808C15C52B85ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{277328A8-C443-40E5-B6DA-B36E1FECBC29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B449C3D4-277B-44C0-9D07-B889F640970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 23 - Plan" sheetId="6" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="150">
   <si>
     <t>Data Science</t>
   </si>
@@ -364,9 +353,6 @@
     <t>Idntity</t>
   </si>
   <si>
-    <t>Month of Feb</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -473,13 +459,31 @@
   </si>
   <si>
     <t>Bootstrap, Fonts,,,</t>
+  </si>
+  <si>
+    <t>Month of Feb FE1-3</t>
+  </si>
+  <si>
+    <t>Month of Feb BECS1</t>
+  </si>
+  <si>
+    <t>Ziad/Emad</t>
+  </si>
+  <si>
+    <t>DMS persentation</t>
+  </si>
+  <si>
+    <t>FE1-2-3</t>
+  </si>
+  <si>
+    <t>Month of Feb DS1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +522,31 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -563,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,6 +627,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,66 +710,6 @@
     <tableColumn id="4" xr3:uid="{94BCFC50-B118-44E9-AF0D-2830C3724392}" name="Person"/>
     <tableColumn id="5" xr3:uid="{3C917C72-73CF-4730-8380-8EB50886FA78}" name="Assignment"/>
     <tableColumn id="6" xr3:uid="{F82C6EBC-4558-4E58-A9CA-F597FE0B003E}" name="Resource/Instructor"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9CDE08A9-1EB6-493C-8EE8-697EFC79D802}" name="Table16" displayName="Table16" ref="A2:F3" totalsRowShown="0">
-  <autoFilter ref="A2:F3" xr:uid="{F802A6CD-9C73-4A5F-AB42-1D2059FF787C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A808A620-9C93-43DF-B27F-A0908704E97B}" name="Week 1"/>
-    <tableColumn id="2" xr3:uid="{1973E92F-A79F-4BE5-86E1-BAED8E851B48}" name="Period 1"/>
-    <tableColumn id="3" xr3:uid="{A73B4A96-CC22-41D1-BCEC-ED370920D048}" name="Period 2"/>
-    <tableColumn id="4" xr3:uid="{1DFFDB14-6150-4D78-9134-4A32AD11139E}" name="Person"/>
-    <tableColumn id="5" xr3:uid="{AB915736-0E8C-4376-9C96-4AE7D15883CF}" name="Assignment"/>
-    <tableColumn id="6" xr3:uid="{E1EC76D7-929C-444F-9DC0-641B92340D16}" name="Resource/Instructor"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15B8B61A-8BB3-46F8-A4A7-F33B74849972}" name="Table137" displayName="Table137" ref="A4:F9" totalsRowShown="0">
-  <autoFilter ref="A4:F9" xr:uid="{DFBFD632-8252-45A1-828D-FC6A15722C32}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0832664B-2760-43D9-A6A8-7207EAD56030}" name="Week 2"/>
-    <tableColumn id="2" xr3:uid="{E23AB3B2-1B52-4708-A973-82E64CDE4D22}" name="Period 1"/>
-    <tableColumn id="3" xr3:uid="{115687E5-7015-4FD3-BDE6-D45020EE5F64}" name="Period 2"/>
-    <tableColumn id="4" xr3:uid="{7EDD04ED-EA32-43C3-8608-B6D6E1B0558A}" name="Person"/>
-    <tableColumn id="5" xr3:uid="{2C1CEB99-DDD6-4853-AA44-76C129C22956}" name="Assignment"/>
-    <tableColumn id="6" xr3:uid="{17E9563F-85AC-4DAE-8121-F3CF0B2E482D}" name="Resource/Instructor"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F44B877B-D407-45BC-99E3-8C75658D8D30}" name="Table1348" displayName="Table1348" ref="A10:F15" totalsRowShown="0">
-  <autoFilter ref="A10:F15" xr:uid="{7DD2A8EA-F51F-4C24-B847-F97DB723A67D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1A8A3982-D093-46DC-BEC8-8394FC068A0D}" name="Week 3"/>
-    <tableColumn id="2" xr3:uid="{BC37E5B8-1939-4D7F-8511-532DD4E66987}" name="Period 1"/>
-    <tableColumn id="3" xr3:uid="{F6E643D0-E5A0-4386-AAE7-4D075BF6CC98}" name="Period 2"/>
-    <tableColumn id="4" xr3:uid="{B10E68A8-BC39-4DED-9353-A99B92F9FE38}" name="Person"/>
-    <tableColumn id="5" xr3:uid="{AF430FD2-32E7-40B0-B02F-87414292FEF0}" name="Assignment"/>
-    <tableColumn id="6" xr3:uid="{DC19AFF9-460B-45CF-A75B-6361EBD787D5}" name="Resource/Instructor"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FB42E155-FB73-4532-A4A1-2B25B02EAB93}" name="Table13459" displayName="Table13459" ref="A16:F21" totalsRowShown="0">
-  <autoFilter ref="A16:F21" xr:uid="{B6C70B0B-976D-456B-9298-0B121856E55D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EDC1988C-4193-46E8-BF75-493A69D287F7}" name="Week 4"/>
-    <tableColumn id="2" xr3:uid="{CAB2E81D-8662-4D1A-8C83-B28D0375F822}" name="Period 1"/>
-    <tableColumn id="3" xr3:uid="{DA500F8E-7A38-4477-A3B6-068EE2D1339F}" name="Period 2"/>
-    <tableColumn id="4" xr3:uid="{5479C858-4F90-4CA3-AAA6-319A69216F4A}" name="Person"/>
-    <tableColumn id="5" xr3:uid="{719ADDC3-00DB-4795-9667-87CC7F448FB3}" name="Assignment"/>
-    <tableColumn id="6" xr3:uid="{8519A2A8-CF48-409A-93B7-8875A4E1CA74}" name="Resource/Instructor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -993,40 +981,40 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="39.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.125" style="3"/>
+    <col min="6" max="6" width="39.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="3"/>
+    <col min="12" max="12" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="3"/>
+    <col min="15" max="15" width="24.125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="3"/>
-    <col min="22" max="22" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.125" style="3"/>
+    <col min="22" max="22" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="9.140625" style="3"/>
+    <col min="24" max="24" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="9.125" style="3"/>
     <col min="36" max="36" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="3"/>
+    <col min="37" max="37" width="9.125" style="3"/>
+    <col min="38" max="38" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1066,7 +1054,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1217,7 +1205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1256,7 @@
       </c>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1362,7 +1350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>57</v>
       </c>
@@ -1394,7 +1382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>65</v>
       </c>
@@ -1421,7 +1409,7 @@
       </c>
       <c r="AI8" s="7"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
@@ -1444,7 +1432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>76</v>
       </c>
@@ -1455,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1469,7 +1457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1488,7 +1476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N13" s="3" t="s">
         <v>85</v>
       </c>
@@ -1499,7 +1487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1510,7 +1498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1518,7 +1506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="10:19">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
       <c r="O17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1527,10 +1515,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="10:19">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
     </row>
-    <row r="22" spans="10:19">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1544,7 +1532,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="10:19">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="10:19">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N24" s="3" t="s">
         <v>94</v>
       </c>
@@ -1590,7 +1578,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="10:19">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N25" s="3" t="s">
         <v>96</v>
       </c>
@@ -1604,7 +1592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="10:19">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N26" s="3" t="s">
         <v>98</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="10:19" ht="13.5" customHeight="1">
+    <row r="27" spans="10:19" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="3" t="s">
         <v>100</v>
       </c>
@@ -1632,7 +1620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="10:19">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N28" s="3" t="s">
         <v>102</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="10:19">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N29" s="3" t="s">
         <v>104</v>
       </c>
@@ -1660,7 +1648,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="10:19">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
       <c r="N30" s="3" t="s">
         <v>106</v>
       </c>
@@ -1674,7 +1662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1"/>
+    <row r="33" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="O22:S22"/>
@@ -1694,22 +1682,21 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1717,15 +1704,15 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1737,7 +1724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1748,15 +1735,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1768,91 +1755,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1864,55 +1851,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>131</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1924,29 +1911,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1967,297 +1954,697 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85253843-A484-4398-A3E8-7BE978F9AC63}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B449C3D4-277B-44C0-9D07-B889F640970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736B6F6-D6C7-47A5-8ACE-42F9F17F2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 23 - Plan" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="155">
   <si>
     <t>Data Science</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Ameen</t>
-  </si>
-  <si>
     <t>Bootstrap, Fonts,,,</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>Month of Feb BECS1</t>
   </si>
   <si>
-    <t>Ziad/Emad</t>
-  </si>
-  <si>
     <t>DMS persentation</t>
   </si>
   <si>
@@ -477,6 +471,27 @@
   </si>
   <si>
     <t>Month of Feb DS1-2</t>
+  </si>
+  <si>
+    <t>Ameen/Nabil</t>
+  </si>
+  <si>
+    <t>Development(Mobile)</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Mob1</t>
+  </si>
+  <si>
+    <t>Ziad</t>
+  </si>
+  <si>
+    <t>Aya</t>
+  </si>
+  <si>
+    <t>Month of Feb Mob1</t>
   </si>
 </sst>
 </file>
@@ -626,15 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ECA02-392D-44CC-A350-86FD530A6FE6}">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1016,39 +1031,39 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -1524,13 +1539,13 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J23" s="4" t="s">
@@ -1662,9 +1677,73 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="13:19" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="R41" s="7"/>
+    </row>
+    <row r="45" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="O38:S38"/>
     <mergeCell ref="O22:S22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -1695,14 +1774,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1954,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85253843-A484-4398-A3E8-7BE978F9AC63}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1965,684 +2044,924 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="10"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736B6F6-D6C7-47A5-8ACE-42F9F17F2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE756D1D-8F00-434C-9484-68D9EC4BE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="155">
   <si>
     <t>Data Science</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Month of Feb DS1-2</t>
   </si>
   <si>
-    <t>Ameen/Nabil</t>
-  </si>
-  <si>
     <t>Development(Mobile)</t>
   </si>
   <si>
@@ -491,7 +488,10 @@
     <t>Aya</t>
   </si>
   <si>
-    <t>Month of Feb Mob1</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Ameen</t>
   </si>
 </sst>
 </file>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ECA02-392D-44CC-A350-86FD530A6FE6}">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q16"/>
+    <sheetView topLeftCell="B2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:22" x14ac:dyDescent="0.25">
       <c r="O17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1530,10 +1530,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:22" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
-    </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="V18" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1547,7 +1550,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N24" s="3" t="s">
         <v>94</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N25" s="3" t="s">
         <v>96</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N26" s="3" t="s">
         <v>98</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="10:19" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:22" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="3" t="s">
         <v>100</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N28" s="3" t="s">
         <v>102</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N29" s="3" t="s">
         <v>104</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:22" x14ac:dyDescent="0.25">
       <c r="N30" s="3" t="s">
         <v>106</v>
       </c>
@@ -1682,7 +1685,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="39" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>7</v>
@@ -1714,19 +1717,19 @@
     </row>
     <row r="40" spans="13:19" x14ac:dyDescent="0.25">
       <c r="N40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P40" s="3">
         <v>10</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="13:19" x14ac:dyDescent="0.25">
@@ -1753,6 +1756,7 @@
     <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2035,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85253843-A484-4398-A3E8-7BE978F9AC63}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2077,15 +2081,12 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2127,24 +2128,12 @@
         <v>12</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2154,7 +2143,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>146</v>
@@ -2173,16 +2162,10 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
@@ -2225,24 +2208,12 @@
         <v>12</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2254,7 +2225,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2270,16 +2241,10 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -2293,7 +2258,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2309,16 +2274,10 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -2332,7 +2291,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2348,16 +2307,10 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -2371,7 +2324,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2387,16 +2340,10 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -2410,7 +2357,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2426,16 +2373,10 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2479,24 +2420,12 @@
         <v>12</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2508,7 +2437,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2522,16 +2451,10 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2545,7 +2468,7 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2559,16 +2482,10 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2582,7 +2499,7 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -2596,16 +2513,10 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -2619,7 +2530,7 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2633,16 +2544,10 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -2656,7 +2561,7 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2670,16 +2575,10 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2723,24 +2622,12 @@
         <v>12</v>
       </c>
       <c r="N16" s="9"/>
-      <c r="O16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2752,7 +2639,7 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2766,9 +2653,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="12"/>
@@ -2785,7 +2670,7 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2799,9 +2684,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="12"/>
@@ -2818,7 +2701,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2832,9 +2715,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="12"/>
@@ -2851,7 +2732,7 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2865,9 +2746,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="12"/>
@@ -2884,7 +2763,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2898,9 +2777,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="12"/>
@@ -2955,13 +2832,11 @@
       <c r="U23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="S1:T1"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE756D1D-8F00-434C-9484-68D9EC4BE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8547C0-7321-4A5E-8871-5710F1677929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 23 - Plan" sheetId="6" r:id="rId1"/>
     <sheet name="Current Stage - Data Science" sheetId="1" r:id="rId2"/>
-    <sheet name="Current Stage - Development" sheetId="7" r:id="rId3"/>
+    <sheet name="DMS" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
   <si>
     <t>Data Science</t>
   </si>
@@ -455,21 +455,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Bootstrap, Fonts,,,</t>
-  </si>
-  <si>
-    <t>Month of Feb FE1-3</t>
-  </si>
-  <si>
-    <t>Month of Feb BECS1</t>
-  </si>
-  <si>
-    <t>DMS persentation</t>
-  </si>
-  <si>
-    <t>FE1-2-3</t>
-  </si>
-  <si>
     <t>Month of Feb DS1-2</t>
   </si>
   <si>
@@ -491,7 +476,130 @@
     <t>I</t>
   </si>
   <si>
-    <t>Ameen</t>
+    <t>DMS Responsibilties</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Sub Component</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>API/FastAPI</t>
+  </si>
+  <si>
+    <t>M Alaa</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Dot net Core API</t>
+  </si>
+  <si>
+    <t>Features List&amp;DB Schema</t>
+  </si>
+  <si>
+    <t>DMS Presentaions</t>
+  </si>
+  <si>
+    <t>Framwork</t>
+  </si>
+  <si>
+    <t>Tech Focus</t>
+  </si>
+  <si>
+    <t>Dot net Core api</t>
+  </si>
+  <si>
+    <t>Model + fastAPI</t>
+  </si>
+  <si>
+    <t>Simple FE Setup</t>
+  </si>
+  <si>
+    <t>Simple BE Setup</t>
+  </si>
+  <si>
+    <t>Identity + Core api</t>
+  </si>
+  <si>
+    <t>LINQ + Core api</t>
+  </si>
+  <si>
+    <t>Current Stage of FE</t>
+  </si>
+  <si>
+    <t>Current Stage of BE</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Person/Team</t>
+  </si>
+  <si>
+    <t>FE/Mo Alaa</t>
+  </si>
+  <si>
+    <t>POC of OCR Model</t>
+  </si>
+  <si>
+    <t>DS/</t>
+  </si>
+  <si>
+    <t>POC of Image cleaning</t>
+  </si>
+  <si>
+    <t>Framwork/ReactJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 22-2 to </t>
+  </si>
+  <si>
+    <t>FE/</t>
+  </si>
+  <si>
+    <t>Git Repo</t>
+  </si>
+  <si>
+    <t>DMS FE Sekelton</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Next WM</t>
+  </si>
+  <si>
+    <t>Mo Alaa</t>
+  </si>
+  <si>
+    <t>DB/ORM</t>
+  </si>
+  <si>
+    <t>Loay - Mustafa</t>
+  </si>
+  <si>
+    <t>Islam - Aya</t>
+  </si>
+  <si>
+    <t>Mark  - Mustafa</t>
   </si>
 </sst>
 </file>
@@ -546,22 +654,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,12 +706,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,15 +744,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,765 +1093,779 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ECA02-392D-44CC-A350-86FD530A6FE6}">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.125" style="3"/>
-    <col min="6" max="6" width="39.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="3"/>
-    <col min="12" max="12" width="10.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.125" style="3"/>
-    <col min="15" max="15" width="24.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.125" style="3"/>
-    <col min="22" max="22" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="9.125" style="3"/>
-    <col min="36" max="36" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.125" style="3"/>
-    <col min="38" max="38" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.125" style="3"/>
+    <col min="1" max="6" width="9.125" style="3"/>
+    <col min="7" max="7" width="39.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="3"/>
+    <col min="13" max="13" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.125" style="3"/>
+    <col min="16" max="16" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.125" style="3"/>
+    <col min="23" max="23" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="38" width="9.125" style="3"/>
+    <col min="39" max="39" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="L1" s="1"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="13" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="1"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>20</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>20</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="7"/>
+      <c r="AL8" s="7"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>20</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="N12" s="3" t="s">
+      <c r="K12" s="6"/>
+      <c r="O12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="3" t="s">
+    <row r="17" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="P18" s="7"/>
-      <c r="V18" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+    <row r="18" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7"/>
+      <c r="W18" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="O23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="R23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="S23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N24" s="3" t="s">
+    <row r="24" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20</v>
       </c>
       <c r="S24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N25" s="3" t="s">
+    <row r="25" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>5</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="3" t="s">
+    <row r="26" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="T26" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="10:22" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N27" s="3" t="s">
+    <row r="27" spans="12:23" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="T27" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N28" s="3" t="s">
+    <row r="28" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <v>20</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N29" s="3" t="s">
+    <row r="29" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="N30" s="3" t="s">
+    <row r="30" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="O30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>10</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="T30" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="13:19" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M38" s="1"/>
+    <row r="33" spans="14:20" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N38" s="1"/>
-      <c r="O38" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-    </row>
-    <row r="39" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N39" s="5" t="s">
+      <c r="O38" s="1"/>
+      <c r="P38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="T39" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="N40" s="3" t="s">
-        <v>150</v>
-      </c>
+    <row r="40" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P40" s="3">
+        <v>145</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40" s="3">
         <v>10</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S40" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="R41" s="7"/>
-    </row>
-    <row r="45" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="O45" s="7"/>
-    </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P55" s="7"/>
+      <c r="R40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="S41" s="7"/>
+    </row>
+    <row r="45" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="P45" s="7"/>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1778,14 +1890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2037,308 +2149,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85253843-A484-4398-A3E8-7BE978F9AC63}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="O1" s="9"/>
+    <row r="1" spans="1:20" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.05" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="E2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="H2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" t="s">
+        <v>185</v>
+      </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>146</v>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="M3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" t="s">
+        <v>181</v>
+      </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="M4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
+        <v>185</v>
+      </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="M5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" t="s">
+        <v>159</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="M6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="M7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N7" t="s">
+        <v>177</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -2346,28 +2407,20 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -2379,46 +2432,22 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -2426,25 +2455,15 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -2457,28 +2476,19 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -2488,28 +2498,19 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2519,28 +2520,19 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2550,28 +2542,19 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -2581,46 +2564,21 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -2628,170 +2586,88 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="12"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="12"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="12"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="12"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="12"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2806,15 +2682,8 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2829,16 +2698,50 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8547C0-7321-4A5E-8871-5710F1677929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839757F-4DCB-4589-98B0-CED31B079F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="199">
   <si>
     <t>Data Science</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Sub Component</t>
   </si>
   <si>
-    <t>Identity</t>
-  </si>
-  <si>
     <t>Cleaning</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
     <t xml:space="preserve">From 22-2 to </t>
   </si>
   <si>
-    <t>FE/</t>
-  </si>
-  <si>
     <t>Git Repo</t>
   </si>
   <si>
@@ -600,13 +594,43 @@
   </si>
   <si>
     <t>Mark  - Mustafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial State Mngmnt </t>
+  </si>
+  <si>
+    <t>Initial Pages</t>
+  </si>
+  <si>
+    <t>BE/</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Enhance BE Setup</t>
+  </si>
+  <si>
+    <t>Models CONT.</t>
+  </si>
+  <si>
+    <t>Simple API of Main entities</t>
+  </si>
+  <si>
+    <t>Models of Main entities : User , Doc, Dir</t>
+  </si>
+  <si>
+    <t>Connect to JSONPlacholder</t>
+  </si>
+  <si>
+    <t>Identity - Roles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +692,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -719,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,6 +784,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,39 +1174,39 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -1272,7 +1315,7 @@
         <v>147</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>17</v>
@@ -1651,13 +1694,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
     </row>
     <row r="23" spans="12:23" x14ac:dyDescent="0.25">
       <c r="L23" s="4" t="s">
@@ -1699,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>94</v>
@@ -1716,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>96</v>
@@ -1796,13 +1839,13 @@
     <row r="38" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
     </row>
     <row r="39" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N39" s="4" t="s">
@@ -1890,14 +1933,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2152,7 +2195,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2210,7 @@
     <col min="10" max="10" width="23.375" customWidth="1"/>
     <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.875" customWidth="1"/>
     <col min="15" max="15" width="9.375" customWidth="1"/>
     <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
@@ -2176,32 +2219,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="9"/>
-      <c r="H1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="12"/>
+      <c r="H1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="14"/>
       <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" t="s">
-        <v>180</v>
-      </c>
       <c r="M1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -2223,27 +2266,27 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="H2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="14"/>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" t="s">
         <v>183</v>
-      </c>
-      <c r="N2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" t="s">
-        <v>185</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -2253,24 +2296,24 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="9"/>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -2280,27 +2323,15 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="F4" s="9"/>
       <c r="M4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -2310,22 +2341,24 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F5" s="9"/>
       <c r="M5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -2337,20 +2370,20 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" s="9"/>
       <c r="M6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" t="s">
         <v>176</v>
-      </c>
-      <c r="N6" t="s">
-        <v>177</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -2360,20 +2393,22 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="M7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -2383,14 +2418,6 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2398,7 +2425,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2410,14 +2437,14 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2437,10 +2464,12 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2456,21 +2485,31 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="M11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -2479,10 +2518,12 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2490,9 +2531,12 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" t="s">
+        <v>197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>174</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2512,9 +2556,12 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" t="s">
+        <v>174</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2534,9 +2581,12 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N14" t="s">
+        <v>174</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -2556,9 +2606,6 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -2578,25 +2625,31 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="M16" t="s">
+        <v>193</v>
+      </c>
+      <c r="N16" t="s">
+        <v>191</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20" ht="16.3" x14ac:dyDescent="0.3">
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="M17" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" t="s">
+        <v>191</v>
+      </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2610,9 +2663,12 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="M18" t="s">
+        <v>195</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -2626,8 +2682,12 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2642,8 +2702,6 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2658,9 +2716,12 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -2674,9 +2735,6 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -2690,9 +2748,6 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -2704,7 +2759,6 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="I25" s="9"/>
@@ -2712,6 +2766,8 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="I26" s="9"/>

--- a/docs/Wave23_Plan_Corelia.xlsx
+++ b/docs/Wave23_Plan_Corelia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\_Work\corelia\_Intern\intern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839757F-4DCB-4589-98B0-CED31B079F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530C11D-2DC7-4A2F-8938-67193CB83599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 23 - Plan" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
   <si>
     <t>Data Science</t>
   </si>
@@ -624,6 +624,15 @@
   </si>
   <si>
     <t>Identity - Roles</t>
+  </si>
+  <si>
+    <t>API of Models</t>
+  </si>
+  <si>
+    <t>DB : Finish Models, entitles, ..</t>
+  </si>
+  <si>
+    <t>Auth : FInish  Rules, Identity</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ECA02-392D-44CC-A350-86FD530A6FE6}">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2192,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85253843-A484-4398-A3E8-7BE978F9AC63}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2754,20 +2763,29 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20" ht="19.05" x14ac:dyDescent="0.35">
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
+      <c r="M24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="I26" s="9"/>
@@ -2788,7 +2806,44 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>201</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M34" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
